--- a/APR_2023.xlsx
+++ b/APR_2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anuragg\Desktop\desktop docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git practice\hello\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{321D199F-F553-471A-A905-0691A1CCC722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DAD97C-485B-4E42-BD7A-9E9C13086CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="31">
   <si>
     <t>Date</t>
   </si>
@@ -699,7 +699,7 @@
   <dimension ref="A1:K366"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A96" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K107" sqref="K107"/>
+      <selection activeCell="K108" sqref="C108:K109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2550,30 +2550,15 @@
       <c r="B108" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C108" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H108" s="9">
-        <v>10</v>
-      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
-      <c r="K108" s="8">
-        <f t="shared" ref="K100:K122" si="1">SUM(F108:J108)</f>
-        <v>10</v>
-      </c>
+      <c r="K108" s="8"/>
     </row>
     <row r="109" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A109" s="7">
@@ -2582,30 +2567,15 @@
       <c r="B109" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C109" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H109" s="9">
-        <v>10</v>
-      </c>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
-      <c r="K109" s="8">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="K109" s="8"/>
     </row>
     <row r="110" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A110" s="7">
@@ -2635,7 +2605,7 @@
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
       <c r="K110" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K108:K122" si="1">SUM(F110:J110)</f>
         <v>10</v>
       </c>
     </row>
